--- a/setup/static/download/upload.xlsx
+++ b/setup/static/download/upload.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$339</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>servidor</t>
   </si>
@@ -71,49 +74,39 @@
     <t>CLUB</t>
   </si>
   <si>
-    <t>TV LG</t>
-  </si>
-  <si>
-    <t>DuplexPlay</t>
-  </si>
-  <si>
     <t>PIX</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>plano_valor</t>
   </si>
   <si>
-    <t>email@email.com</t>
+    <t>TV Samsung</t>
   </si>
   <si>
-    <t>1a2b3c4d5e6f</t>
+    <t>Smart STB</t>
   </si>
   <si>
-    <t>CLIENTE DE EXEMPLO</t>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>Cliente de exemplo</t>
+  </si>
+  <si>
+    <t>Fulano de tal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,30 +158,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,130 +461,5473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5511999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1111111</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5598763335</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>35</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="4">
-        <v>45023</v>
+      <c r="O2" s="5">
+        <v>44927</v>
       </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60" s="5"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62" s="5"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65" s="5"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66" s="5"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67" s="5"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68" s="5"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69" s="5"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70" s="5"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74" s="5"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75" s="5"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77" s="5"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78" s="5"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79" s="5"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81" s="5"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82" s="5"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89" s="5"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92" s="5"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93" s="5"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94" s="5"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96" s="5"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98" s="5"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99" s="5"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100" s="5"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102" s="5"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104" s="5"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105" s="5"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106" s="5"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107" s="5"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108" s="5"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109" s="5"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110" s="5"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111" s="5"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112" s="5"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113" s="5"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114" s="5"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115" s="5"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116" s="5"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117" s="5"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118" s="5"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119" s="5"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120" s="5"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121" s="5"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122" s="5"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124" s="5"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125" s="5"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126" s="5"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127" s="5"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128" s="5"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129" s="5"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130" s="5"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131" s="5"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132" s="5"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133" s="5"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134" s="5"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135" s="5"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136" s="5"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137" s="5"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138" s="5"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139" s="5"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140" s="5"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141" s="5"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142" s="5"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143" s="5"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144" s="5"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145" s="5"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146" s="5"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147" s="5"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148" s="5"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149" s="5"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150" s="5"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151" s="5"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152" s="5"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153" s="5"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154" s="5"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155" s="5"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156" s="5"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157" s="5"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158" s="5"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159" s="5"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160" s="5"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161" s="5"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162" s="5"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163" s="5"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164" s="5"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165" s="5"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166" s="5"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167" s="5"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168" s="5"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169" s="5"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170" s="5"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171" s="5"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172" s="5"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173" s="5"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174" s="5"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175" s="5"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176" s="5"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177" s="5"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178" s="5"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179" s="5"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180"/>
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180" s="5"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181"/>
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
+      <c r="O181" s="5"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182" s="5"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183"/>
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183" s="5"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184" s="5"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185" s="5"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186" s="5"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187"/>
+      <c r="L187"/>
+      <c r="M187"/>
+      <c r="N187"/>
+      <c r="O187" s="5"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188"/>
+      <c r="L188"/>
+      <c r="M188"/>
+      <c r="N188"/>
+      <c r="O188" s="5"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
+      <c r="O189" s="5"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190"/>
+      <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="I190"/>
+      <c r="J190"/>
+      <c r="K190"/>
+      <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
+      <c r="O190" s="5"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191"/>
+      <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
+      <c r="O191" s="5"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="I192"/>
+      <c r="J192"/>
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
+      <c r="O192" s="5"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193"/>
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="I193"/>
+      <c r="J193"/>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+      <c r="O193" s="5"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194"/>
+      <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+      <c r="L194"/>
+      <c r="M194"/>
+      <c r="N194"/>
+      <c r="O194" s="5"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195"/>
+      <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+      <c r="L195"/>
+      <c r="M195"/>
+      <c r="N195"/>
+      <c r="O195" s="5"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196"/>
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
+      <c r="L196"/>
+      <c r="M196"/>
+      <c r="N196"/>
+      <c r="O196" s="5"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197"/>
+      <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
+      <c r="O197" s="5"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198" s="5"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199" s="5"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200" s="5"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201"/>
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201"/>
+      <c r="N201"/>
+      <c r="O201" s="5"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+      <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202"/>
+      <c r="O202" s="5"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203"/>
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203"/>
+      <c r="N203"/>
+      <c r="O203" s="5"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204"/>
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204"/>
+      <c r="O204" s="5"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205"/>
+      <c r="B205"/>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205"/>
+      <c r="N205"/>
+      <c r="O205" s="5"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A206"/>
+      <c r="B206"/>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
+      <c r="L206"/>
+      <c r="M206"/>
+      <c r="N206"/>
+      <c r="O206" s="5"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207"/>
+      <c r="B207"/>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207"/>
+      <c r="O207" s="5"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208"/>
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208"/>
+      <c r="N208"/>
+      <c r="O208" s="5"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+      <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209"/>
+      <c r="N209"/>
+      <c r="O209" s="5"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A210"/>
+      <c r="B210"/>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210" s="5"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A211"/>
+      <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211"/>
+      <c r="O211" s="5"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+      <c r="B212"/>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
+      <c r="O212" s="5"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+      <c r="B213"/>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="N213"/>
+      <c r="O213" s="5"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A214"/>
+      <c r="B214"/>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
+      <c r="L214"/>
+      <c r="M214"/>
+      <c r="N214"/>
+      <c r="O214" s="5"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A215"/>
+      <c r="B215"/>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215"/>
+      <c r="I215"/>
+      <c r="J215"/>
+      <c r="K215"/>
+      <c r="L215"/>
+      <c r="M215"/>
+      <c r="N215"/>
+      <c r="O215" s="5"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A216"/>
+      <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
+      <c r="I216"/>
+      <c r="J216"/>
+      <c r="K216"/>
+      <c r="L216"/>
+      <c r="M216"/>
+      <c r="N216"/>
+      <c r="O216" s="5"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+      <c r="B217"/>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
+      <c r="I217"/>
+      <c r="J217"/>
+      <c r="K217"/>
+      <c r="L217"/>
+      <c r="M217"/>
+      <c r="N217"/>
+      <c r="O217" s="5"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A218"/>
+      <c r="B218"/>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
+      <c r="I218"/>
+      <c r="J218"/>
+      <c r="K218"/>
+      <c r="L218"/>
+      <c r="M218"/>
+      <c r="N218"/>
+      <c r="O218" s="5"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A219"/>
+      <c r="B219"/>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
+      <c r="I219"/>
+      <c r="J219"/>
+      <c r="K219"/>
+      <c r="L219"/>
+      <c r="M219"/>
+      <c r="N219"/>
+      <c r="O219" s="5"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A220"/>
+      <c r="B220"/>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
+      <c r="I220"/>
+      <c r="J220"/>
+      <c r="K220"/>
+      <c r="L220"/>
+      <c r="M220"/>
+      <c r="N220"/>
+      <c r="O220" s="5"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="N221"/>
+      <c r="O221" s="5"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A222"/>
+      <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
+      <c r="L222"/>
+      <c r="M222"/>
+      <c r="N222"/>
+      <c r="O222" s="5"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A223"/>
+      <c r="B223"/>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
+      <c r="I223"/>
+      <c r="J223"/>
+      <c r="K223"/>
+      <c r="L223"/>
+      <c r="M223"/>
+      <c r="N223"/>
+      <c r="O223" s="5"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A224"/>
+      <c r="B224"/>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
+      <c r="L224"/>
+      <c r="M224"/>
+      <c r="N224"/>
+      <c r="O224" s="5"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A225"/>
+      <c r="B225"/>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+      <c r="K225"/>
+      <c r="L225"/>
+      <c r="M225"/>
+      <c r="N225"/>
+      <c r="O225" s="5"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A226"/>
+      <c r="B226"/>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
+      <c r="G226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+      <c r="K226"/>
+      <c r="L226"/>
+      <c r="M226"/>
+      <c r="N226"/>
+      <c r="O226" s="5"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A227"/>
+      <c r="B227"/>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
+      <c r="G227"/>
+      <c r="I227"/>
+      <c r="J227"/>
+      <c r="K227"/>
+      <c r="L227"/>
+      <c r="M227"/>
+      <c r="N227"/>
+      <c r="O227" s="5"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A228"/>
+      <c r="B228"/>
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228"/>
+      <c r="G228"/>
+      <c r="I228"/>
+      <c r="J228"/>
+      <c r="K228"/>
+      <c r="L228"/>
+      <c r="M228"/>
+      <c r="N228"/>
+      <c r="O228" s="5"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A229"/>
+      <c r="B229"/>
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229"/>
+      <c r="G229"/>
+      <c r="I229"/>
+      <c r="J229"/>
+      <c r="K229"/>
+      <c r="L229"/>
+      <c r="M229"/>
+      <c r="N229"/>
+      <c r="O229" s="5"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A230"/>
+      <c r="B230"/>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
+      <c r="G230"/>
+      <c r="I230"/>
+      <c r="J230"/>
+      <c r="K230"/>
+      <c r="L230"/>
+      <c r="M230"/>
+      <c r="N230"/>
+      <c r="O230" s="5"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A231"/>
+      <c r="B231"/>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+      <c r="K231"/>
+      <c r="L231"/>
+      <c r="M231"/>
+      <c r="N231"/>
+      <c r="O231" s="5"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A232"/>
+      <c r="B232"/>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
+      <c r="G232"/>
+      <c r="I232"/>
+      <c r="J232"/>
+      <c r="K232"/>
+      <c r="L232"/>
+      <c r="M232"/>
+      <c r="N232"/>
+      <c r="O232" s="5"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A233"/>
+      <c r="B233"/>
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233"/>
+      <c r="G233"/>
+      <c r="I233"/>
+      <c r="J233"/>
+      <c r="K233"/>
+      <c r="L233"/>
+      <c r="M233"/>
+      <c r="N233"/>
+      <c r="O233" s="5"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A234"/>
+      <c r="B234"/>
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234"/>
+      <c r="G234"/>
+      <c r="I234"/>
+      <c r="J234"/>
+      <c r="K234"/>
+      <c r="L234"/>
+      <c r="M234"/>
+      <c r="N234"/>
+      <c r="O234" s="5"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A235"/>
+      <c r="B235"/>
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
+      <c r="G235"/>
+      <c r="I235"/>
+      <c r="J235"/>
+      <c r="K235"/>
+      <c r="L235"/>
+      <c r="M235"/>
+      <c r="N235"/>
+      <c r="O235" s="5"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A236"/>
+      <c r="B236"/>
+      <c r="C236"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236"/>
+      <c r="G236"/>
+      <c r="I236"/>
+      <c r="J236"/>
+      <c r="K236"/>
+      <c r="L236"/>
+      <c r="M236"/>
+      <c r="N236"/>
+      <c r="O236" s="5"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A237"/>
+      <c r="B237"/>
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
+      <c r="G237"/>
+      <c r="I237"/>
+      <c r="J237"/>
+      <c r="K237"/>
+      <c r="L237"/>
+      <c r="M237"/>
+      <c r="N237"/>
+      <c r="O237" s="5"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A238"/>
+      <c r="B238"/>
+      <c r="C238"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238"/>
+      <c r="G238"/>
+      <c r="I238"/>
+      <c r="J238"/>
+      <c r="K238"/>
+      <c r="L238"/>
+      <c r="M238"/>
+      <c r="N238"/>
+      <c r="O238" s="5"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A239"/>
+      <c r="B239"/>
+      <c r="C239"/>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239"/>
+      <c r="G239"/>
+      <c r="I239"/>
+      <c r="J239"/>
+      <c r="K239"/>
+      <c r="L239"/>
+      <c r="M239"/>
+      <c r="N239"/>
+      <c r="O239" s="5"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A240"/>
+      <c r="B240"/>
+      <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240"/>
+      <c r="G240"/>
+      <c r="I240"/>
+      <c r="J240"/>
+      <c r="K240"/>
+      <c r="L240"/>
+      <c r="M240"/>
+      <c r="N240"/>
+      <c r="O240" s="5"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A241"/>
+      <c r="B241"/>
+      <c r="C241"/>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241"/>
+      <c r="G241"/>
+      <c r="I241"/>
+      <c r="J241"/>
+      <c r="K241"/>
+      <c r="L241"/>
+      <c r="M241"/>
+      <c r="N241"/>
+      <c r="O241" s="5"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A242"/>
+      <c r="B242"/>
+      <c r="C242"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
+      <c r="G242"/>
+      <c r="I242"/>
+      <c r="J242"/>
+      <c r="K242"/>
+      <c r="L242"/>
+      <c r="M242"/>
+      <c r="N242"/>
+      <c r="O242" s="5"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A243"/>
+      <c r="B243"/>
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
+      <c r="G243"/>
+      <c r="I243"/>
+      <c r="J243"/>
+      <c r="K243"/>
+      <c r="L243"/>
+      <c r="M243"/>
+      <c r="N243"/>
+      <c r="O243" s="5"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A244"/>
+      <c r="B244"/>
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244"/>
+      <c r="G244"/>
+      <c r="I244"/>
+      <c r="J244"/>
+      <c r="K244"/>
+      <c r="L244"/>
+      <c r="M244"/>
+      <c r="N244"/>
+      <c r="O244" s="5"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A245"/>
+      <c r="B245"/>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245"/>
+      <c r="I245"/>
+      <c r="J245"/>
+      <c r="K245"/>
+      <c r="L245"/>
+      <c r="M245"/>
+      <c r="N245"/>
+      <c r="O245" s="5"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A246"/>
+      <c r="B246"/>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
+      <c r="G246"/>
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246"/>
+      <c r="L246"/>
+      <c r="M246"/>
+      <c r="N246"/>
+      <c r="O246" s="5"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A247"/>
+      <c r="B247"/>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
+      <c r="G247"/>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247"/>
+      <c r="L247"/>
+      <c r="M247"/>
+      <c r="N247"/>
+      <c r="O247" s="5"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A248"/>
+      <c r="B248"/>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
+      <c r="G248"/>
+      <c r="I248"/>
+      <c r="J248"/>
+      <c r="K248"/>
+      <c r="L248"/>
+      <c r="M248"/>
+      <c r="N248"/>
+      <c r="O248" s="5"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A249"/>
+      <c r="B249"/>
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249"/>
+      <c r="I249"/>
+      <c r="J249"/>
+      <c r="K249"/>
+      <c r="L249"/>
+      <c r="M249"/>
+      <c r="N249"/>
+      <c r="O249" s="5"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A250"/>
+      <c r="B250"/>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
+      <c r="L250"/>
+      <c r="M250"/>
+      <c r="N250"/>
+      <c r="O250" s="5"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A251"/>
+      <c r="B251"/>
+      <c r="C251"/>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251"/>
+      <c r="G251"/>
+      <c r="I251"/>
+      <c r="J251"/>
+      <c r="K251"/>
+      <c r="L251"/>
+      <c r="M251"/>
+      <c r="N251"/>
+      <c r="O251" s="5"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A252"/>
+      <c r="B252"/>
+      <c r="C252"/>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252"/>
+      <c r="G252"/>
+      <c r="I252"/>
+      <c r="J252"/>
+      <c r="K252"/>
+      <c r="L252"/>
+      <c r="M252"/>
+      <c r="N252"/>
+      <c r="O252" s="5"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A253"/>
+      <c r="B253"/>
+      <c r="C253"/>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
+      <c r="G253"/>
+      <c r="I253"/>
+      <c r="J253"/>
+      <c r="K253"/>
+      <c r="L253"/>
+      <c r="M253"/>
+      <c r="N253"/>
+      <c r="O253" s="5"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A254"/>
+      <c r="B254"/>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254"/>
+      <c r="I254"/>
+      <c r="J254"/>
+      <c r="K254"/>
+      <c r="L254"/>
+      <c r="M254"/>
+      <c r="N254"/>
+      <c r="O254" s="5"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A255"/>
+      <c r="B255"/>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255"/>
+      <c r="I255"/>
+      <c r="J255"/>
+      <c r="K255"/>
+      <c r="L255"/>
+      <c r="M255"/>
+      <c r="N255"/>
+      <c r="O255" s="5"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A256"/>
+      <c r="B256"/>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
+      <c r="G256"/>
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256"/>
+      <c r="L256"/>
+      <c r="M256"/>
+      <c r="N256"/>
+      <c r="O256" s="5"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A257"/>
+      <c r="B257"/>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257"/>
+      <c r="G257"/>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257"/>
+      <c r="L257"/>
+      <c r="M257"/>
+      <c r="N257"/>
+      <c r="O257" s="5"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A258"/>
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258"/>
+      <c r="I258"/>
+      <c r="J258"/>
+      <c r="K258"/>
+      <c r="L258"/>
+      <c r="M258"/>
+      <c r="N258"/>
+      <c r="O258" s="5"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A259"/>
+      <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+      <c r="G259"/>
+      <c r="I259"/>
+      <c r="J259"/>
+      <c r="K259"/>
+      <c r="L259"/>
+      <c r="M259"/>
+      <c r="N259"/>
+      <c r="O259" s="5"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A260"/>
+      <c r="B260"/>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+      <c r="F260"/>
+      <c r="G260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+      <c r="K260"/>
+      <c r="L260"/>
+      <c r="M260"/>
+      <c r="N260"/>
+      <c r="O260" s="5"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A261"/>
+      <c r="B261"/>
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
+      <c r="G261"/>
+      <c r="I261"/>
+      <c r="J261"/>
+      <c r="K261"/>
+      <c r="L261"/>
+      <c r="M261"/>
+      <c r="N261"/>
+      <c r="O261" s="5"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A262"/>
+      <c r="B262"/>
+      <c r="C262"/>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262"/>
+      <c r="G262"/>
+      <c r="I262"/>
+      <c r="J262"/>
+      <c r="K262"/>
+      <c r="L262"/>
+      <c r="M262"/>
+      <c r="N262"/>
+      <c r="O262" s="5"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A263"/>
+      <c r="B263"/>
+      <c r="C263"/>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
+      <c r="G263"/>
+      <c r="I263"/>
+      <c r="J263"/>
+      <c r="K263"/>
+      <c r="L263"/>
+      <c r="M263"/>
+      <c r="N263"/>
+      <c r="O263" s="5"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A264"/>
+      <c r="B264"/>
+      <c r="C264"/>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264"/>
+      <c r="G264"/>
+      <c r="I264"/>
+      <c r="J264"/>
+      <c r="K264"/>
+      <c r="L264"/>
+      <c r="M264"/>
+      <c r="N264"/>
+      <c r="O264" s="5"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A265"/>
+      <c r="B265"/>
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265"/>
+      <c r="G265"/>
+      <c r="I265"/>
+      <c r="J265"/>
+      <c r="K265"/>
+      <c r="L265"/>
+      <c r="M265"/>
+      <c r="N265"/>
+      <c r="O265" s="5"/>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A266"/>
+      <c r="B266"/>
+      <c r="C266"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266"/>
+      <c r="G266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
+      <c r="L266"/>
+      <c r="M266"/>
+      <c r="N266"/>
+      <c r="O266" s="5"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A267"/>
+      <c r="B267"/>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267"/>
+      <c r="G267"/>
+      <c r="I267"/>
+      <c r="J267"/>
+      <c r="K267"/>
+      <c r="L267"/>
+      <c r="M267"/>
+      <c r="N267"/>
+      <c r="O267" s="5"/>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A268"/>
+      <c r="B268"/>
+      <c r="C268"/>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268"/>
+      <c r="G268"/>
+      <c r="I268"/>
+      <c r="J268"/>
+      <c r="K268"/>
+      <c r="L268"/>
+      <c r="M268"/>
+      <c r="N268"/>
+      <c r="O268" s="5"/>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A269"/>
+      <c r="B269"/>
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269"/>
+      <c r="G269"/>
+      <c r="I269"/>
+      <c r="J269"/>
+      <c r="K269"/>
+      <c r="L269"/>
+      <c r="M269"/>
+      <c r="N269"/>
+      <c r="O269" s="5"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A270"/>
+      <c r="B270"/>
+      <c r="C270"/>
+      <c r="D270"/>
+      <c r="E270"/>
+      <c r="F270"/>
+      <c r="G270"/>
+      <c r="I270"/>
+      <c r="J270"/>
+      <c r="K270"/>
+      <c r="L270"/>
+      <c r="M270"/>
+      <c r="N270"/>
+      <c r="O270" s="5"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A271"/>
+      <c r="B271"/>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
+      <c r="G271"/>
+      <c r="I271"/>
+      <c r="J271"/>
+      <c r="K271"/>
+      <c r="L271"/>
+      <c r="M271"/>
+      <c r="N271"/>
+      <c r="O271" s="5"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A272"/>
+      <c r="B272"/>
+      <c r="C272"/>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272"/>
+      <c r="G272"/>
+      <c r="I272"/>
+      <c r="J272"/>
+      <c r="K272"/>
+      <c r="L272"/>
+      <c r="M272"/>
+      <c r="N272"/>
+      <c r="O272" s="5"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A273"/>
+      <c r="B273"/>
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273"/>
+      <c r="G273"/>
+      <c r="I273"/>
+      <c r="J273"/>
+      <c r="K273"/>
+      <c r="L273"/>
+      <c r="M273"/>
+      <c r="N273"/>
+      <c r="O273" s="5"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A274"/>
+      <c r="B274"/>
+      <c r="C274"/>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274"/>
+      <c r="G274"/>
+      <c r="I274"/>
+      <c r="J274"/>
+      <c r="K274"/>
+      <c r="L274"/>
+      <c r="M274"/>
+      <c r="N274"/>
+      <c r="O274" s="5"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A275"/>
+      <c r="B275"/>
+      <c r="C275"/>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275"/>
+      <c r="G275"/>
+      <c r="I275"/>
+      <c r="J275"/>
+      <c r="K275"/>
+      <c r="L275"/>
+      <c r="M275"/>
+      <c r="N275"/>
+      <c r="O275" s="5"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A276"/>
+      <c r="B276"/>
+      <c r="C276"/>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276"/>
+      <c r="G276"/>
+      <c r="I276"/>
+      <c r="J276"/>
+      <c r="K276"/>
+      <c r="L276"/>
+      <c r="M276"/>
+      <c r="N276"/>
+      <c r="O276" s="5"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A277"/>
+      <c r="B277"/>
+      <c r="C277"/>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277"/>
+      <c r="G277"/>
+      <c r="I277"/>
+      <c r="J277"/>
+      <c r="K277"/>
+      <c r="L277"/>
+      <c r="M277"/>
+      <c r="N277"/>
+      <c r="O277" s="5"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A278"/>
+      <c r="B278"/>
+      <c r="C278"/>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278"/>
+      <c r="G278"/>
+      <c r="I278"/>
+      <c r="J278"/>
+      <c r="K278"/>
+      <c r="L278"/>
+      <c r="M278"/>
+      <c r="N278"/>
+      <c r="O278" s="5"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A279"/>
+      <c r="B279"/>
+      <c r="C279"/>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279"/>
+      <c r="G279"/>
+      <c r="I279"/>
+      <c r="J279"/>
+      <c r="K279"/>
+      <c r="L279"/>
+      <c r="M279"/>
+      <c r="N279"/>
+      <c r="O279" s="5"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A280"/>
+      <c r="B280"/>
+      <c r="C280"/>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280"/>
+      <c r="G280"/>
+      <c r="I280"/>
+      <c r="J280"/>
+      <c r="K280"/>
+      <c r="L280"/>
+      <c r="M280"/>
+      <c r="N280"/>
+      <c r="O280" s="5"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A281"/>
+      <c r="B281"/>
+      <c r="C281"/>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281"/>
+      <c r="G281"/>
+      <c r="I281"/>
+      <c r="J281"/>
+      <c r="K281"/>
+      <c r="L281"/>
+      <c r="M281"/>
+      <c r="N281"/>
+      <c r="O281" s="5"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A282"/>
+      <c r="B282"/>
+      <c r="C282"/>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282"/>
+      <c r="G282"/>
+      <c r="I282"/>
+      <c r="J282"/>
+      <c r="K282"/>
+      <c r="L282"/>
+      <c r="M282"/>
+      <c r="N282"/>
+      <c r="O282" s="5"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A283"/>
+      <c r="B283"/>
+      <c r="C283"/>
+      <c r="D283"/>
+      <c r="E283"/>
+      <c r="F283"/>
+      <c r="G283"/>
+      <c r="I283"/>
+      <c r="J283"/>
+      <c r="K283"/>
+      <c r="L283"/>
+      <c r="M283"/>
+      <c r="N283"/>
+      <c r="O283" s="5"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A284"/>
+      <c r="B284"/>
+      <c r="C284"/>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284"/>
+      <c r="G284"/>
+      <c r="I284"/>
+      <c r="J284"/>
+      <c r="K284"/>
+      <c r="L284"/>
+      <c r="M284"/>
+      <c r="N284"/>
+      <c r="O284" s="5"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A285"/>
+      <c r="B285"/>
+      <c r="C285"/>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285"/>
+      <c r="G285"/>
+      <c r="I285"/>
+      <c r="J285"/>
+      <c r="K285"/>
+      <c r="L285"/>
+      <c r="M285"/>
+      <c r="N285"/>
+      <c r="O285" s="5"/>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A286"/>
+      <c r="B286"/>
+      <c r="C286"/>
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286"/>
+      <c r="G286"/>
+      <c r="I286"/>
+      <c r="J286"/>
+      <c r="K286"/>
+      <c r="L286"/>
+      <c r="M286"/>
+      <c r="N286"/>
+      <c r="O286" s="5"/>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A287"/>
+      <c r="B287"/>
+      <c r="C287"/>
+      <c r="D287"/>
+      <c r="E287"/>
+      <c r="F287"/>
+      <c r="G287"/>
+      <c r="I287"/>
+      <c r="J287"/>
+      <c r="K287"/>
+      <c r="L287"/>
+      <c r="M287"/>
+      <c r="N287"/>
+      <c r="O287" s="5"/>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A288"/>
+      <c r="B288"/>
+      <c r="C288"/>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288"/>
+      <c r="G288"/>
+      <c r="I288"/>
+      <c r="J288"/>
+      <c r="K288"/>
+      <c r="L288"/>
+      <c r="M288"/>
+      <c r="N288"/>
+      <c r="O288" s="5"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A289"/>
+      <c r="B289"/>
+      <c r="C289"/>
+      <c r="D289"/>
+      <c r="E289"/>
+      <c r="F289"/>
+      <c r="G289"/>
+      <c r="I289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+      <c r="L289"/>
+      <c r="M289"/>
+      <c r="N289"/>
+      <c r="O289" s="5"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A290"/>
+      <c r="B290"/>
+      <c r="C290"/>
+      <c r="D290"/>
+      <c r="E290"/>
+      <c r="F290"/>
+      <c r="G290"/>
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="N290"/>
+      <c r="O290" s="5"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A291"/>
+      <c r="B291"/>
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+      <c r="F291"/>
+      <c r="G291"/>
+      <c r="I291"/>
+      <c r="J291"/>
+      <c r="K291"/>
+      <c r="L291"/>
+      <c r="M291"/>
+      <c r="N291"/>
+      <c r="O291" s="5"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A292"/>
+      <c r="B292"/>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292"/>
+      <c r="G292"/>
+      <c r="I292"/>
+      <c r="J292"/>
+      <c r="K292"/>
+      <c r="L292"/>
+      <c r="M292"/>
+      <c r="N292"/>
+      <c r="O292" s="5"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A293"/>
+      <c r="B293"/>
+      <c r="C293"/>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293"/>
+      <c r="G293"/>
+      <c r="I293"/>
+      <c r="J293"/>
+      <c r="K293"/>
+      <c r="L293"/>
+      <c r="M293"/>
+      <c r="N293"/>
+      <c r="O293" s="5"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A294"/>
+      <c r="B294"/>
+      <c r="C294"/>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294"/>
+      <c r="G294"/>
+      <c r="I294"/>
+      <c r="J294"/>
+      <c r="K294"/>
+      <c r="L294"/>
+      <c r="M294"/>
+      <c r="N294"/>
+      <c r="O294" s="5"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A295"/>
+      <c r="B295"/>
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295"/>
+      <c r="G295"/>
+      <c r="I295"/>
+      <c r="J295"/>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="N295"/>
+      <c r="O295" s="5"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A296"/>
+      <c r="B296"/>
+      <c r="C296"/>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296"/>
+      <c r="G296"/>
+      <c r="I296"/>
+      <c r="J296"/>
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="N296"/>
+      <c r="O296" s="5"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A297"/>
+      <c r="B297"/>
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297"/>
+      <c r="G297"/>
+      <c r="I297"/>
+      <c r="J297"/>
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="N297"/>
+      <c r="O297" s="5"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A298"/>
+      <c r="B298"/>
+      <c r="C298"/>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298"/>
+      <c r="G298"/>
+      <c r="I298"/>
+      <c r="J298"/>
+      <c r="K298"/>
+      <c r="L298"/>
+      <c r="M298"/>
+      <c r="N298"/>
+      <c r="O298" s="5"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A299"/>
+      <c r="B299"/>
+      <c r="C299"/>
+      <c r="D299"/>
+      <c r="E299"/>
+      <c r="F299"/>
+      <c r="G299"/>
+      <c r="I299"/>
+      <c r="J299"/>
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="N299"/>
+      <c r="O299" s="5"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A300"/>
+      <c r="B300"/>
+      <c r="C300"/>
+      <c r="D300"/>
+      <c r="E300"/>
+      <c r="F300"/>
+      <c r="G300"/>
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+      <c r="L300"/>
+      <c r="M300"/>
+      <c r="N300"/>
+      <c r="O300" s="5"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A301"/>
+      <c r="B301"/>
+      <c r="C301"/>
+      <c r="D301"/>
+      <c r="E301"/>
+      <c r="F301"/>
+      <c r="G301"/>
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+      <c r="L301"/>
+      <c r="M301"/>
+      <c r="N301"/>
+      <c r="O301" s="5"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A302"/>
+      <c r="B302"/>
+      <c r="C302"/>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302"/>
+      <c r="G302"/>
+      <c r="I302"/>
+      <c r="J302"/>
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="N302"/>
+      <c r="O302" s="5"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A303"/>
+      <c r="B303"/>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303"/>
+      <c r="G303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+      <c r="L303"/>
+      <c r="M303"/>
+      <c r="N303"/>
+      <c r="O303" s="5"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A304"/>
+      <c r="B304"/>
+      <c r="C304"/>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304"/>
+      <c r="G304"/>
+      <c r="I304"/>
+      <c r="J304"/>
+      <c r="K304"/>
+      <c r="L304"/>
+      <c r="M304"/>
+      <c r="N304"/>
+      <c r="O304" s="5"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A305"/>
+      <c r="B305"/>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305"/>
+      <c r="G305"/>
+      <c r="I305"/>
+      <c r="J305"/>
+      <c r="K305"/>
+      <c r="L305"/>
+      <c r="M305"/>
+      <c r="N305"/>
+      <c r="O305" s="5"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A306"/>
+      <c r="B306"/>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306"/>
+      <c r="G306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
+      <c r="L306"/>
+      <c r="M306"/>
+      <c r="N306"/>
+      <c r="O306" s="5"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A307"/>
+      <c r="B307"/>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307"/>
+      <c r="G307"/>
+      <c r="I307"/>
+      <c r="J307"/>
+      <c r="K307"/>
+      <c r="L307"/>
+      <c r="M307"/>
+      <c r="N307"/>
+      <c r="O307" s="5"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+      <c r="B308"/>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308"/>
+      <c r="G308"/>
+      <c r="I308"/>
+      <c r="J308"/>
+      <c r="K308"/>
+      <c r="L308"/>
+      <c r="M308"/>
+      <c r="N308"/>
+      <c r="O308" s="5"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+      <c r="B309"/>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309"/>
+      <c r="G309"/>
+      <c r="I309"/>
+      <c r="J309"/>
+      <c r="K309"/>
+      <c r="L309"/>
+      <c r="M309"/>
+      <c r="N309"/>
+      <c r="O309" s="5"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+      <c r="B310"/>
+      <c r="C310"/>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
+      <c r="G310"/>
+      <c r="I310"/>
+      <c r="J310"/>
+      <c r="K310"/>
+      <c r="L310"/>
+      <c r="M310"/>
+      <c r="N310"/>
+      <c r="O310" s="5"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A311"/>
+      <c r="B311"/>
+      <c r="C311"/>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311"/>
+      <c r="G311"/>
+      <c r="I311"/>
+      <c r="J311"/>
+      <c r="K311"/>
+      <c r="L311"/>
+      <c r="M311"/>
+      <c r="N311"/>
+      <c r="O311" s="5"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+      <c r="B312"/>
+      <c r="C312"/>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312"/>
+      <c r="G312"/>
+      <c r="I312"/>
+      <c r="J312"/>
+      <c r="K312"/>
+      <c r="L312"/>
+      <c r="M312"/>
+      <c r="N312"/>
+      <c r="O312" s="5"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+      <c r="B313"/>
+      <c r="C313"/>
+      <c r="D313"/>
+      <c r="E313"/>
+      <c r="F313"/>
+      <c r="G313"/>
+      <c r="I313"/>
+      <c r="J313"/>
+      <c r="K313"/>
+      <c r="L313"/>
+      <c r="M313"/>
+      <c r="N313"/>
+      <c r="O313" s="5"/>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+      <c r="B314"/>
+      <c r="C314"/>
+      <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314"/>
+      <c r="G314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+      <c r="K314"/>
+      <c r="L314"/>
+      <c r="M314"/>
+      <c r="N314"/>
+      <c r="O314" s="5"/>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+      <c r="B315"/>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315"/>
+      <c r="G315"/>
+      <c r="I315"/>
+      <c r="J315"/>
+      <c r="K315"/>
+      <c r="L315"/>
+      <c r="M315"/>
+      <c r="N315"/>
+      <c r="O315" s="5"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+      <c r="B316"/>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316"/>
+      <c r="G316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+      <c r="K316"/>
+      <c r="L316"/>
+      <c r="M316"/>
+      <c r="N316"/>
+      <c r="O316" s="5"/>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+      <c r="B317"/>
+      <c r="C317"/>
+      <c r="D317"/>
+      <c r="E317"/>
+      <c r="F317"/>
+      <c r="G317"/>
+      <c r="I317"/>
+      <c r="J317"/>
+      <c r="K317"/>
+      <c r="L317"/>
+      <c r="M317"/>
+      <c r="N317"/>
+      <c r="O317" s="5"/>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+      <c r="B318"/>
+      <c r="C318"/>
+      <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318"/>
+      <c r="G318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+      <c r="K318"/>
+      <c r="L318"/>
+      <c r="M318"/>
+      <c r="N318"/>
+      <c r="O318" s="5"/>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+      <c r="B319"/>
+      <c r="C319"/>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319"/>
+      <c r="G319"/>
+      <c r="I319"/>
+      <c r="J319"/>
+      <c r="K319"/>
+      <c r="L319"/>
+      <c r="M319"/>
+      <c r="N319"/>
+      <c r="O319" s="5"/>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+      <c r="B320"/>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
+      <c r="G320"/>
+      <c r="I320"/>
+      <c r="J320"/>
+      <c r="K320"/>
+      <c r="L320"/>
+      <c r="M320"/>
+      <c r="N320"/>
+      <c r="O320" s="5"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A321"/>
+      <c r="B321"/>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321"/>
+      <c r="G321"/>
+      <c r="I321"/>
+      <c r="J321"/>
+      <c r="K321"/>
+      <c r="L321"/>
+      <c r="M321"/>
+      <c r="N321"/>
+      <c r="O321" s="5"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+      <c r="B322"/>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322"/>
+      <c r="G322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
+      <c r="L322"/>
+      <c r="M322"/>
+      <c r="N322"/>
+      <c r="O322" s="5"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+      <c r="B323"/>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323"/>
+      <c r="G323"/>
+      <c r="I323"/>
+      <c r="J323"/>
+      <c r="K323"/>
+      <c r="L323"/>
+      <c r="M323"/>
+      <c r="N323"/>
+      <c r="O323" s="5"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+      <c r="B324"/>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324"/>
+      <c r="G324"/>
+      <c r="I324"/>
+      <c r="J324"/>
+      <c r="K324"/>
+      <c r="L324"/>
+      <c r="M324"/>
+      <c r="N324"/>
+      <c r="O324" s="5"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+      <c r="B325"/>
+      <c r="C325"/>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325"/>
+      <c r="G325"/>
+      <c r="I325"/>
+      <c r="J325"/>
+      <c r="K325"/>
+      <c r="L325"/>
+      <c r="M325"/>
+      <c r="N325"/>
+      <c r="O325" s="5"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+      <c r="B326"/>
+      <c r="C326"/>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326"/>
+      <c r="G326"/>
+      <c r="I326"/>
+      <c r="J326"/>
+      <c r="K326"/>
+      <c r="L326"/>
+      <c r="M326"/>
+      <c r="N326"/>
+      <c r="O326" s="5"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+      <c r="B327"/>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
+      <c r="G327"/>
+      <c r="I327"/>
+      <c r="J327"/>
+      <c r="K327"/>
+      <c r="L327"/>
+      <c r="M327"/>
+      <c r="N327"/>
+      <c r="O327" s="5"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+      <c r="B328"/>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328"/>
+      <c r="G328"/>
+      <c r="I328"/>
+      <c r="J328"/>
+      <c r="K328"/>
+      <c r="L328"/>
+      <c r="M328"/>
+      <c r="N328"/>
+      <c r="O328" s="5"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+      <c r="B329"/>
+      <c r="C329"/>
+      <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329"/>
+      <c r="G329"/>
+      <c r="I329"/>
+      <c r="J329"/>
+      <c r="K329"/>
+      <c r="L329"/>
+      <c r="M329"/>
+      <c r="N329"/>
+      <c r="O329" s="5"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+      <c r="B330"/>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330"/>
+      <c r="G330"/>
+      <c r="I330"/>
+      <c r="J330"/>
+      <c r="K330"/>
+      <c r="L330"/>
+      <c r="M330"/>
+      <c r="N330"/>
+      <c r="O330" s="5"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A331"/>
+      <c r="B331"/>
+      <c r="C331"/>
+      <c r="D331"/>
+      <c r="E331"/>
+      <c r="F331"/>
+      <c r="G331"/>
+      <c r="I331"/>
+      <c r="J331"/>
+      <c r="K331"/>
+      <c r="L331"/>
+      <c r="M331"/>
+      <c r="N331"/>
+      <c r="O331" s="5"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+      <c r="B332"/>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332"/>
+      <c r="G332"/>
+      <c r="I332"/>
+      <c r="J332"/>
+      <c r="K332"/>
+      <c r="L332"/>
+      <c r="M332"/>
+      <c r="N332"/>
+      <c r="O332" s="5"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+      <c r="B333"/>
+      <c r="C333"/>
+      <c r="D333"/>
+      <c r="E333"/>
+      <c r="F333"/>
+      <c r="G333"/>
+      <c r="I333"/>
+      <c r="J333"/>
+      <c r="K333"/>
+      <c r="L333"/>
+      <c r="M333"/>
+      <c r="N333"/>
+      <c r="O333" s="5"/>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+      <c r="B334"/>
+      <c r="C334"/>
+      <c r="D334"/>
+      <c r="E334"/>
+      <c r="F334"/>
+      <c r="G334"/>
+      <c r="I334"/>
+      <c r="J334"/>
+      <c r="K334"/>
+      <c r="L334"/>
+      <c r="M334"/>
+      <c r="N334"/>
+      <c r="O334" s="5"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+      <c r="B335"/>
+      <c r="C335"/>
+      <c r="D335"/>
+      <c r="E335"/>
+      <c r="F335"/>
+      <c r="G335"/>
+      <c r="I335"/>
+      <c r="J335"/>
+      <c r="K335"/>
+      <c r="L335"/>
+      <c r="M335"/>
+      <c r="N335"/>
+      <c r="O335" s="5"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A336"/>
+      <c r="B336"/>
+      <c r="C336"/>
+      <c r="D336"/>
+      <c r="E336"/>
+      <c r="F336"/>
+      <c r="G336"/>
+      <c r="I336"/>
+      <c r="J336"/>
+      <c r="K336"/>
+      <c r="L336"/>
+      <c r="M336"/>
+      <c r="N336"/>
+      <c r="O336" s="5"/>
+    </row>
+    <row r="337" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F337" s="6"/>
+      <c r="J337" s="6"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" autoFilter="0"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
+  <autoFilter ref="A1:O339"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>